--- a/design/Excel/excel/主角表_leader.xlsx
+++ b/design/Excel/excel/主角表_leader.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cfg_leader" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -356,7 +356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
